--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC27_Verify_Store_room.xlsx
@@ -175,9 +175,6 @@
     <t>TINY_SCROLL_DOWN</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>SCROLL_UP</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>EnableCertificate_GoTOPage</t>
+  </si>
+  <si>
+    <t>SignOut</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -657,13 +657,13 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>45</v>
@@ -681,13 +681,13 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -878,7 +878,7 @@
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -896,7 +896,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>42</v>
@@ -1123,12 +1123,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1250,12 +1250,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1456,15 +1453,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1489,10 +1490,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>